--- a/数据库导入-spray.xlsx
+++ b/数据库导入-spray.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bilibili-Overlab\图床（Git同步）\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62920D-BD8C-4CBF-B895-F2212B409B98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10665" yWindow="2400" windowWidth="22965" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>spID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spSrc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本页面喷漆头像等图片的版权所有者为暴雪。本页仅提供下载服务，使用版权参照暴雪条款。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后更新版本：1.48.0.0（2020/06/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,13 +91,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +113,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4E56E7-B406-4FB8-BAC8-BF677626A8F9}" name="表1" displayName="表1" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{E0CE4D4F-5EB7-423F-82C8-2EE64992DF50}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0F235F55-82AC-4DFF-9E5A-15DA45189C50}" name="spID" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8F9316B7-0560-4913-A2CD-4BA13EE363F7}" name="spName"/>
+    <tableColumn id="3" xr3:uid="{C038241D-4CB2-46EF-BEF8-1BA8A7E5B5C1}" name="spSrc"/>
+    <tableColumn id="4" xr3:uid="{2073381B-9269-462A-9C68-60DC792FE229}" name="spSrc2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +390,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="51.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/数据库导入-spray.xlsx
+++ b/数据库导入-spray.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bilibili-Overlab\图床（Git同步）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62920D-BD8C-4CBF-B895-F2212B409B98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664576AD-290B-402E-84E7-E8299BF2ADF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="2400" windowWidth="22965" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="2580" windowWidth="22965" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,11 +48,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本页面喷漆头像等图片的版权所有者为暴雪。本页仅提供下载服务，使用版权参照暴雪条款。</t>
+    <t>选择英雄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后更新版本：1.48.0.0（2020/06/10）</t>
+    <t>喷漆【通用】【常规】…拳头（overlab.cn）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +103,10 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -115,13 +123,115 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3933825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CDA211-584D-488C-8F85-E86BD85D81E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="409575"/>
+          <a:ext cx="5324475" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>“选择英雄”不导入数据库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>spSrc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>”由函数根据“选择英雄”自动生成（字符串拼接用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4E56E7-B406-4FB8-BAC8-BF677626A8F9}" name="表1" displayName="表1" ref="A1:D31" totalsRowShown="0">
-  <autoFilter ref="A1:D31" xr:uid="{E0CE4D4F-5EB7-423F-82C8-2EE64992DF50}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0F235F55-82AC-4DFF-9E5A-15DA45189C50}" name="spID" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF4E56E7-B406-4FB8-BAC8-BF677626A8F9}" name="表1" displayName="表1" ref="A1:E31" totalsRowShown="0">
+  <autoFilter ref="A1:E31" xr:uid="{E0CE4D4F-5EB7-423F-82C8-2EE64992DF50}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0F235F55-82AC-4DFF-9E5A-15DA45189C50}" name="spID" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{8F9316B7-0560-4913-A2CD-4BA13EE363F7}" name="spName"/>
-    <tableColumn id="3" xr3:uid="{C038241D-4CB2-46EF-BEF8-1BA8A7E5B5C1}" name="spSrc"/>
+    <tableColumn id="5" xr3:uid="{D97577F7-4242-4BA0-BD68-A3A4E5479630}" name="选择英雄"/>
+    <tableColumn id="3" xr3:uid="{C038241D-4CB2-46EF-BEF8-1BA8A7E5B5C1}" name="spSrc" dataDxfId="0">
+      <calculatedColumnFormula>"https://"&amp;表1[[#This Row],[选择英雄]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{2073381B-9269-462A-9C68-60DC792FE229}" name="spSrc2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -391,19 +501,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="51.875" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,120 +522,238 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>-2</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="D3" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="D4" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D16" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D17" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D18" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D19" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D20" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D21" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D22" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D23" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D24" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D25" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D26" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D27" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D28" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D29" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D30" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
+      <c r="D31" t="str">
+        <f>"https://"&amp;表1[[#This Row],[选择英雄]]</f>
+        <v>https://</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>